--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA805BF2-E4C8-F948-A81A-F0DE0A9A062C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363A4B5-98ED-1A4D-9D9A-411A000981FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40780" yWindow="700" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -110,6 +110,9 @@
 good_data, 
 suspect_data_not_wind_direction_filtered 
   </t>
+  </si>
+  <si>
+    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -608,8 +611,8 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.25</v>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -617,8 +620,8 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11">
-        <v>40</v>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,131 +675,123 @@
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="13">
-        <v>-1E+20</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="11">
-        <v>100000000</v>
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="B27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>24</v>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3691,12 +3686,8 @@
     <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C995" s="7"/>
     </row>
-    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C996" s="7"/>
-    </row>
-    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C997" s="7"/>
-    </row>
+    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
     <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363A4B5-98ED-1A4D-9D9A-411A000981FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05B942-0DBC-8C4A-905E-3A3F7CE0E32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40780" yWindow="700" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Variable</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Ambient Aerosol Particle Diameter</t>
-  </si>
-  <si>
-    <t>valid_min</t>
-  </si>
-  <si>
-    <t>valid_max</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -110,9 +104,6 @@
 good_data, 
 suspect_data_not_wind_direction_filtered 
   </t>
-  </si>
-  <si>
-    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -169,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -193,9 +184,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -531,7 +519,7 @@
   <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:C26"/>
+      <selection activeCell="C17" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -607,185 +595,161 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13">
-        <v>-1E+20</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>22</v>
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>23</v>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3674,21 +3638,13 @@
     <row r="991" spans="3:3" ht="13" x14ac:dyDescent="0.15">
       <c r="C991" s="7"/>
     </row>
-    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C992" s="7"/>
-    </row>
-    <row r="993" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C993" s="7"/>
-    </row>
-    <row r="994" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C994" s="7"/>
-    </row>
-    <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="C995" s="7"/>
-    </row>
-    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05B942-0DBC-8C4A-905E-3A3F7CE0E32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C24C69-48EB-8046-963C-7543C4322CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40780" yWindow="700" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,13 +97,13 @@
     <t>flag_meanings</t>
   </si>
   <si>
-    <t>0, 1, 2</t>
+    <t>0b,1b, 2b, 3b</t>
   </si>
   <si>
-    <t xml:space="preserve">bad_data,   
-good_data, 
-suspect_data_not_wind_direction_filtered 
-  </t>
+    <t>not_used
+good_data 
+bad_data_pressure_outside_sensor_operational_range
+suspect_data_time_stamp_error</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -196,9 +196,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +513,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C998"/>
+  <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A16:C17"/>
+      <selection activeCell="B23" sqref="B23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -669,19 +666,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -690,7 +687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -699,7 +696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -717,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="16" t="s">
         <v>23</v>
@@ -725,40 +722,43 @@
       <c r="C23" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="3:3" ht="13" x14ac:dyDescent="0.15">

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C24C69-48EB-8046-963C-7543C4322CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC4B05C-396A-4647-9FEB-94D60A816B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40780" yWindow="700" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47360" yWindow="-3140" windowWidth="19020" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="3" r:id="rId1"/>
@@ -97,13 +97,14 @@
     <t>flag_meanings</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b</t>
+    <t>0b,1b, 2b, 3b, 4b</t>
   </si>
   <si>
     <t>not_used
 good_data 
-bad_data_pressure_outside_sensor_operational_range
-suspect_data_time_stamp_error</t>
+bad_data_station_pollution_advecting_past_instrument
+bad_data_unspecified_instrument_error
+suspect_data_no_met_data_available_to_qc_for_station_pollution</t>
   </si>
 </sst>
 </file>
@@ -160,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -196,6 +197,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +520,7 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -731,7 +735,7 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
     </row>

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFF77B2-A6AB-7441-A59A-0CC1A94BD2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C9C51-A540-BE4C-8FCB-62FDDB286C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47360" yWindow="-3140" windowWidth="19020" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="19020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="3" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:XFD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C9C51-A540-BE4C-8FCB-62FDDB286C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC56BE6-7E9B-6341-BD7B-690A35BF9386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="19020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40160" yWindow="-420" windowWidth="19020" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="3" r:id="rId1"/>
@@ -551,12 +551,12 @@
   <dimension ref="A1:XFD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="10" width="8.6640625" customWidth="1"/>

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC56BE6-7E9B-6341-BD7B-690A35BF9386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E66B89-7EB8-AA45-A5F1-1DF0AB714DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40160" yWindow="-420" windowWidth="19020" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,16 +97,6 @@
     <t>flag_meanings</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b, 4b</t>
-  </si>
-  <si>
-    <t>not_used
-good_data 
-bad_data_station_pollution_advecting_past_instrument
-bad_data_unspecified_instrument_error
-suspect_data_no_met_data_available_to_qc_for_station_pollution</t>
-  </si>
-  <si>
     <t>valid_min</t>
   </si>
   <si>
@@ -120,6 +110,12 @@
   </si>
   <si>
     <t>time: mean</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>not_used good_data bad_data_station_pollution_advecting_past_instrument bad_data_unspecified_instrument_error suspect_data_no_met_data_available_to_qc_for_station_pollution</t>
   </si>
 </sst>
 </file>
@@ -551,7 +547,7 @@
   <dimension ref="A1:XFD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -629,10 +625,10 @@
     <row r="8" spans="1:16384" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
@@ -17019,10 +17015,10 @@
     <row r="9" spans="1:16384" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
@@ -33475,28 +33471,28 @@
     <row r="18" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -33562,7 +33558,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -33574,7 +33570,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/aerosol-size-distribution.xlsx
+++ b/specific_variables/aerosol-size-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E66B89-7EB8-AA45-A5F1-1DF0AB714DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40EA4F6-11EE-4E4E-8B6E-AF6538B726A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="-420" windowWidth="19020" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32840" yWindow="-420" windowWidth="26340" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="3" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>time: mean</t>
   </si>
   <si>
-    <t>0, 1, 2, 3, 4</t>
+    <t>not_used good_data bad_data_station_pollution_advecting_past_instrument suspect_data_no_met_data_available_to_qc_for_station_pollution bad_data_technician_log bad_data_unspecified_instrument_error</t>
   </si>
   <si>
-    <t>not_used good_data bad_data_station_pollution_advecting_past_instrument bad_data_unspecified_instrument_error suspect_data_no_met_data_available_to_qc_for_station_pollution</t>
+    <t>0, 1, 2, 3, 4, 5</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:XFD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33558,7 +33558,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -33570,7 +33570,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
